--- a/wash_P/GBR.xlsx
+++ b/wash_P/GBR.xlsx
@@ -15539,7 +15539,7 @@
         <v>0</v>
       </c>
       <c r="FP5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="FQ5" t="n">
         <v>0</v>
@@ -18071,7 +18071,7 @@
         <v>0</v>
       </c>
       <c r="AMB5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AMC5" t="n">
         <v>0</v>
@@ -21795,7 +21795,7 @@
         <v>0</v>
       </c>
       <c r="FP7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="FQ7" t="n">
         <v>0</v>
@@ -37261,7 +37261,7 @@
         <v>0</v>
       </c>
       <c r="DJ12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DK12" t="n">
         <v>0</v>
@@ -37273,7 +37273,7 @@
         <v>0</v>
       </c>
       <c r="DN12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DO12" t="n">
         <v>0</v>
@@ -37978,7 +37978,7 @@
         <v>0</v>
       </c>
       <c r="MO12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="MP12" t="n">
         <v>0</v>
@@ -46843,7 +46843,7 @@
         <v>0</v>
       </c>
       <c r="FX15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="FY15" t="n">
         <v>0</v>
@@ -50103,7 +50103,7 @@
         <v>0</v>
       </c>
       <c r="HP16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="HQ16" t="n">
         <v>0</v>
@@ -52916,7 +52916,7 @@
         <v>0</v>
       </c>
       <c r="DO17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DP17" t="n">
         <v>0</v>
@@ -53462,7 +53462,7 @@
         <v>0</v>
       </c>
       <c r="KO17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="KP17" t="n">
         <v>0</v>
@@ -56590,7 +56590,7 @@
         <v>0</v>
       </c>
       <c r="KO18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="KP18" t="n">
         <v>0</v>
@@ -59067,7 +59067,7 @@
         <v>0</v>
       </c>
       <c r="CF19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CG19" t="n">
         <v>0</v>
@@ -61152,7 +61152,7 @@
         <v>0</v>
       </c>
       <c r="ACY19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="ACZ19" t="n">
         <v>0</v>
@@ -61176,7 +61176,7 @@
         <v>0</v>
       </c>
       <c r="ADG19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="ADH19" t="n">
         <v>0</v>
@@ -63032,7 +63032,7 @@
         <v>0</v>
       </c>
       <c r="MY20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="MZ20" t="n">
         <v>0</v>
@@ -66154,7 +66154,7 @@
         <v>0</v>
       </c>
       <c r="MW21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="MX21" t="n">
         <v>0</v>
@@ -69282,7 +69282,7 @@
         <v>0</v>
       </c>
       <c r="MW22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="MX22" t="n">
         <v>0</v>
@@ -71567,7 +71567,7 @@
         <v>0</v>
       </c>
       <c r="CB23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CC23" t="n">
         <v>0</v>
@@ -71582,7 +71582,7 @@
         <v>0</v>
       </c>
       <c r="CG23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CH23" t="n">
         <v>0</v>
@@ -71609,7 +71609,7 @@
         <v>0</v>
       </c>
       <c r="CP23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CQ23" t="n">
         <v>0</v>
@@ -77970,7 +77970,7 @@
         <v>0</v>
       </c>
       <c r="DY25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DZ25" t="n">
         <v>0</v>
@@ -83801,7 +83801,7 @@
         <v>0</v>
       </c>
       <c r="AMP26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AMQ26" t="n">
         <v>0</v>
@@ -84226,7 +84226,7 @@
         <v>0</v>
       </c>
       <c r="DY27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DZ27" t="n">
         <v>0</v>
@@ -87375,7 +87375,7 @@
         <v>0</v>
       </c>
       <c r="EF28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EG28" t="n">
         <v>0</v>
@@ -87450,7 +87450,7 @@
         <v>0</v>
       </c>
       <c r="FE28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="FF28" t="n">
         <v>0</v>
@@ -87465,7 +87465,7 @@
         <v>0</v>
       </c>
       <c r="FJ28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="FK28" t="n">
         <v>0</v>
@@ -87516,7 +87516,7 @@
         <v>0</v>
       </c>
       <c r="GA28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="GB28" t="n">
         <v>0</v>
@@ -90578,7 +90578,7 @@
         <v>0</v>
       </c>
       <c r="FE29" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="FF29" t="n">
         <v>0</v>
@@ -90644,7 +90644,7 @@
         <v>0</v>
       </c>
       <c r="GA29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="GB29" t="n">
         <v>0</v>
